--- a/Pilot_2/Rearrange_datasets/part1_text_2.xlsx
+++ b/Pilot_2/Rearrange_datasets/part1_text_2.xlsx
@@ -5514,7 +5514,7 @@
       </c>
       <c r="AO26" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP26" t="inlineStr"/>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="AO27" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP27" t="inlineStr"/>
@@ -5904,7 +5904,7 @@
       </c>
       <c r="AO28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP28" t="inlineStr"/>
@@ -10387,7 +10387,7 @@
       </c>
       <c r="AO51" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP51" t="inlineStr"/>
@@ -10972,7 +10972,7 @@
       </c>
       <c r="AO54" t="inlineStr">
         <is>
-          <t>Ferry</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="AP54" t="n">
@@ -12528,7 +12528,7 @@
       </c>
       <c r="AO62" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP62" t="inlineStr"/>
@@ -19928,7 +19928,7 @@
       </c>
       <c r="AO100" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP100" t="inlineStr"/>
@@ -21878,7 +21878,7 @@
       </c>
       <c r="AO110" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP110" t="inlineStr"/>
@@ -31624,7 +31624,7 @@
       </c>
       <c r="AO160" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP160" t="inlineStr"/>
@@ -37279,7 +37279,7 @@
       </c>
       <c r="AO189" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP189" t="inlineStr"/>
@@ -44283,7 +44283,7 @@
       </c>
       <c r="AO225" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP225" t="inlineStr"/>
@@ -49158,7 +49158,7 @@
       </c>
       <c r="AO250" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP250" t="inlineStr"/>
@@ -49359,7 +49359,7 @@
       </c>
       <c r="AO251" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP251" t="inlineStr"/>
@@ -56556,7 +56556,7 @@
       </c>
       <c r="AO288" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP288" t="inlineStr"/>
@@ -59087,7 +59087,7 @@
       </c>
       <c r="AO301" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP301" t="inlineStr"/>
@@ -65494,7 +65494,7 @@
       </c>
       <c r="AO334" t="inlineStr">
         <is>
-          <t>Ferry</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="AP334" t="n">
@@ -67050,7 +67050,7 @@
       </c>
       <c r="AO342" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP342" t="inlineStr"/>
@@ -73284,7 +73284,7 @@
       </c>
       <c r="AO374" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP374" t="inlineStr"/>
@@ -75033,7 +75033,7 @@
       </c>
       <c r="AO383" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP383" t="inlineStr"/>
@@ -80479,7 +80479,7 @@
       </c>
       <c r="AO411" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP411" t="inlineStr"/>
@@ -81456,7 +81456,7 @@
       </c>
       <c r="AO416" t="inlineStr">
         <is>
-          <t>Ferry</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="AP416" t="n">
@@ -91964,7 +91964,7 @@
       </c>
       <c r="AO470" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP470" t="inlineStr"/>
@@ -94495,7 +94495,7 @@
       </c>
       <c r="AO483" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>I have no available alternatives</t>
         </is>
       </c>
       <c r="AP483" t="inlineStr"/>
